--- a/US State Names.xlsx
+++ b/US State Names.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/44cc3db344cab39d/Desktop/PC-BOT 2.0/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\satbir.malli\Desktop\BOT-for-form-filling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{97022DC2-7AC3-4984-89E3-6F079F98D311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA6E535D-9A65-4417-96BC-1A0EFB1BE3E9}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D74087BA-790A-457E-A8A8-99AA75665402}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F3D2B365-8F4A-4F5C-A7CF-FC3BA7378106}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{F3D2B365-8F4A-4F5C-A7CF-FC3BA7378106}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,90 +25,75 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
-  <si>
-    <t>Alabama-Montgomery</t>
-  </si>
-  <si>
-    <t>Alaska-Anchorage</t>
-  </si>
-  <si>
-    <t>Arizona-Phoenix</t>
-  </si>
-  <si>
-    <t>Arkansas-Magnolia</t>
-  </si>
-  <si>
-    <t>California-Los_Angeles</t>
-  </si>
-  <si>
-    <t>California-San_jose</t>
-  </si>
-  <si>
-    <t>Connecticut_Trumbull</t>
-  </si>
-  <si>
-    <t>Delaware-Wilmington</t>
-  </si>
-  <si>
-    <t>District_of_Columbia-Washington_DC</t>
-  </si>
-  <si>
-    <t>Florida_Jacksonville</t>
-  </si>
-  <si>
-    <t>Florida_Miami</t>
-  </si>
-  <si>
-    <t>Georgia_Atlanta</t>
-  </si>
-  <si>
-    <t>Hawaii_Honolulu</t>
-  </si>
-  <si>
-    <t>Idaho-Idaho_Falls</t>
-  </si>
-  <si>
-    <t>Illinois-Chicago</t>
-  </si>
-  <si>
-    <t>Indian-South_bend</t>
-  </si>
-  <si>
-    <t>Kansas-Wichita</t>
-  </si>
-  <si>
-    <t>Kentucky-Louisville</t>
-  </si>
-  <si>
-    <t>Louisiana-New_Orleans</t>
-  </si>
-  <si>
-    <t>Maine_Bath</t>
-  </si>
-  <si>
-    <t>Maryland-Baltimore</t>
-  </si>
-  <si>
-    <t>Nevada-Las_Vegas</t>
-  </si>
-  <si>
-    <t>New_York_Liberty_Island</t>
-  </si>
-  <si>
-    <t>Texas_Dallas</t>
-  </si>
-  <si>
-    <t>Washington_Seattle</t>
-  </si>
-  <si>
-    <t>New-hampshire-Bedford</t>
-  </si>
-  <si>
-    <t>des-moines</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>State</t>
+  </si>
+  <si>
+    <t>San Jose</t>
+  </si>
+  <si>
+    <t>Boston</t>
+  </si>
+  <si>
+    <t>Seattle</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>Buffalo</t>
+  </si>
+  <si>
+    <t>Detroit</t>
+  </si>
+  <si>
+    <t>Bend</t>
+  </si>
+  <si>
+    <t>Ashburn</t>
+  </si>
+  <si>
+    <t>Chicago</t>
+  </si>
+  <si>
+    <t>Latham</t>
+  </si>
+  <si>
+    <t>Salt Lake City</t>
+  </si>
+  <si>
+    <t>Charlotte</t>
+  </si>
+  <si>
+    <t>Kansas City</t>
+  </si>
+  <si>
+    <t>Denver</t>
+  </si>
+  <si>
+    <t>San Francisco</t>
+  </si>
+  <si>
+    <t>Atlanta</t>
+  </si>
+  <si>
+    <t>Las Vegas</t>
+  </si>
+  <si>
+    <t>Los Angeles</t>
+  </si>
+  <si>
+    <t>Dallas</t>
+  </si>
+  <si>
+    <t>Phoenix</t>
+  </si>
+  <si>
+    <t>Miami</t>
+  </si>
+  <si>
+    <t>Houston</t>
   </si>
 </sst>
 </file>
@@ -161,10 +146,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -484,153 +465,127 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92CBD2E5-06B4-4961-A147-F21DE2B99FDC}">
-  <dimension ref="A1:A28"/>
+  <dimension ref="A1:A23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="25.5546875" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
